--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="893">
   <si>
     <t>password</t>
   </si>
@@ -2591,9 +2591,6 @@
     <t>//div[@id='pnlCaseWidgetBody']/div/table//tbody/tr[3]/td[2]/span</t>
   </si>
   <si>
-    <t>//iframe[@src='Docket/Default.aspx?case_id=12951&amp;case_extension=']</t>
-  </si>
-  <si>
     <t>Xpath</t>
   </si>
   <si>
@@ -2607,6 +2604,96 @@
   </si>
   <si>
     <t>//div[@id='UpdateProgressMain' and @aria-hidden='false']</t>
+  </si>
+  <si>
+    <t>JurisdictionLookup_LabelJurisdiction</t>
+  </si>
+  <si>
+    <t>JURISDICTION_LABEL</t>
+  </si>
+  <si>
+    <t>//iframe[@src='Docket/Default.aspx?case_id=</t>
+  </si>
+  <si>
+    <t>&amp;case_extension=']</t>
+  </si>
+  <si>
+    <t>txtCourtCaseNumber_btnLookup</t>
+  </si>
+  <si>
+    <t>COURTCASE_SEARCH_ICON</t>
+  </si>
+  <si>
+    <t>//input[@value='Search for Cases']</t>
+  </si>
+  <si>
+    <t>COURTCASE_POPUP_SEARCHCASES_TEXTBOX</t>
+  </si>
+  <si>
+    <t>//select/option[text()='All']</t>
+  </si>
+  <si>
+    <t>COURTCASE_POPUP_FILTER_ALL_DROPDOWN</t>
+  </si>
+  <si>
+    <t>riButton</t>
+  </si>
+  <si>
+    <t>SEARCH_ICON_SEARCHCASES</t>
+  </si>
+  <si>
+    <t>//tbody/tr[contains(@id,'ContentMain_trgCases')]/td</t>
+  </si>
+  <si>
+    <t>COURTCASE_SEARCH_ITEM</t>
+  </si>
+  <si>
+    <t>chkEnableDocketDirect</t>
+  </si>
+  <si>
+    <t>ENABLE_DOCKET_CHECKBOX</t>
+  </si>
+  <si>
+    <t>txtCourtCaseNumber_LabelCourtCaseNumber</t>
+  </si>
+  <si>
+    <t>COURSTCASESET_LABEL</t>
+  </si>
+  <si>
+    <t>btnDeleteCase</t>
+  </si>
+  <si>
+    <t>DELETE_CASE_ICON</t>
+  </si>
+  <si>
+    <t>btnAddCase</t>
+  </si>
+  <si>
+    <t>ADDCASE_ICON</t>
+  </si>
+  <si>
+    <t>IFRAME_ADDNEWCASE_CASEDETAIL_PAGE</t>
+  </si>
+  <si>
+    <t>//iframe[@name='NewCaseWindow']</t>
+  </si>
+  <si>
+    <t>OR_END1</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@src,'Docket/Default.aspx?case_id')]</t>
+  </si>
+  <si>
+    <t>txtClientMatter_lblClientName</t>
+  </si>
+  <si>
+    <t>txtClientMatter_lblMatterName</t>
+  </si>
+  <si>
+    <t>CLIENT_NAME_CASEPAGE</t>
+  </si>
+  <si>
+    <t>MATTERNAME_CASEPAGE</t>
   </si>
 </sst>
 </file>
@@ -3079,8 +3166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3809,7 +3896,7 @@
         <v>666</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3820,7 +3907,7 @@
         <v>668</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3831,7 +3918,7 @@
         <v>670</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3842,7 +3929,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3853,7 +3940,7 @@
         <v>673</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="6" customFormat="1">
@@ -3875,7 +3962,7 @@
         <v>664</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3886,7 +3973,7 @@
         <v>675</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3897,7 +3984,7 @@
         <v>676</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3908,7 +3995,7 @@
         <v>677</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3919,7 +4006,7 @@
         <v>6</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3930,7 +4017,7 @@
         <v>673</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3996,7 +4083,7 @@
         <v>769</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4007,7 +4094,7 @@
         <v>772</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D99" s="2"/>
     </row>
@@ -4030,7 +4117,7 @@
         <v>664</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4041,7 +4128,7 @@
         <v>823</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4052,7 +4139,7 @@
         <v>698</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4063,7 +4150,7 @@
         <v>699</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4074,7 +4161,7 @@
         <v>6</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4085,7 +4172,7 @@
         <v>673</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4096,7 +4183,7 @@
         <v>705</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4107,7 +4194,7 @@
         <v>6</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4140,7 +4227,7 @@
         <v>712</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4151,7 +4238,7 @@
         <v>713</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4162,7 +4249,7 @@
         <v>715</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4173,7 +4260,7 @@
         <v>717</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4184,7 +4271,7 @@
         <v>6</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4195,7 +4282,7 @@
         <v>724</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4206,7 +4293,7 @@
         <v>722</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4217,7 +4304,7 @@
         <v>598</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4239,7 +4326,7 @@
         <v>774</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4250,7 +4337,7 @@
         <v>592</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4261,7 +4348,7 @@
         <v>6</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4272,7 +4359,7 @@
         <v>592</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4283,7 +4370,7 @@
         <v>595</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D124" s="2"/>
     </row>
@@ -4295,7 +4382,7 @@
         <v>775</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4306,7 +4393,7 @@
         <v>6</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4317,7 +4404,7 @@
         <v>776</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4328,7 +4415,7 @@
         <v>6</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4339,7 +4426,7 @@
         <v>777</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4350,7 +4437,7 @@
         <v>6</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4361,7 +4448,7 @@
         <v>730</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4372,7 +4459,7 @@
         <v>6</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4383,7 +4470,7 @@
         <v>732</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4394,7 +4481,7 @@
         <v>6</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4405,7 +4492,7 @@
         <v>738</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4416,7 +4503,7 @@
         <v>6</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4427,7 +4514,7 @@
         <v>739</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4438,7 +4525,7 @@
         <v>6</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -4449,7 +4536,7 @@
         <v>779</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -4460,7 +4547,7 @@
         <v>740</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -4471,7 +4558,7 @@
         <v>6</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4482,7 +4569,7 @@
         <v>745</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -4493,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -4504,7 +4591,7 @@
         <v>614</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -4515,7 +4602,7 @@
         <v>615</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -4526,7 +4613,7 @@
         <v>750</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4537,7 +4624,7 @@
         <v>6</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -4548,7 +4635,7 @@
         <v>752</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4559,7 +4646,7 @@
         <v>6</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -4570,7 +4657,7 @@
         <v>758</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -4581,7 +4668,7 @@
         <v>6</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -4592,7 +4679,7 @@
         <v>759</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4603,7 +4690,7 @@
         <v>6</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -4614,7 +4701,7 @@
         <v>762</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -4625,7 +4712,7 @@
         <v>6</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -4636,7 +4723,7 @@
         <v>619</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -4647,7 +4734,7 @@
         <v>620</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4658,7 +4745,7 @@
         <v>767</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4669,7 +4756,7 @@
         <v>781</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4680,12 +4767,12 @@
         <v>783</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="C161" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -4985,7 +5072,7 @@
         <v>854</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="C192" s="17" t="s">
         <v>793</v>
@@ -4995,7 +5082,9 @@
       <c r="A193" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="B193" s="17"/>
+      <c r="B193" s="17" t="s">
+        <v>866</v>
+      </c>
       <c r="C193" s="12" t="s">
         <v>793</v>
       </c>
@@ -5090,10 +5179,10 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B202" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C202" s="17" t="s">
         <v>793</v>
@@ -5101,76 +5190,149 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B203" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C203" s="17" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="7"/>
+      <c r="A204" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B204" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="7"/>
+      <c r="A205" s="7" t="s">
+        <v>868</v>
+      </c>
+      <c r="B205" t="s">
+        <v>867</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="7"/>
+      <c r="A206" s="7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B206" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="7"/>
+      <c r="A207" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="B207" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="7"/>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="7"/>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="7"/>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="7"/>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="7"/>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="7"/>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="7"/>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="7"/>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="7"/>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="7"/>
-    </row>
-    <row r="218" spans="1:1">
+      <c r="A208" s="7" t="s">
+        <v>874</v>
+      </c>
+      <c r="B208" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="B209" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="B210" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="7" t="s">
+        <v>880</v>
+      </c>
+      <c r="B211" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="B212" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="B213" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="B214" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B215" s="17" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="B216" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="B217" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" s="7"/>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:2">
       <c r="A219" s="7"/>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:2">
       <c r="A220" s="7"/>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:2">
       <c r="A221" s="7"/>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:2">
       <c r="A222" s="7"/>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:2">
       <c r="A223" s="7"/>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:2">
       <c r="A224" s="7"/>
     </row>
     <row r="225" spans="1:2">

--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="911">
   <si>
     <t>password</t>
   </si>
@@ -2694,6 +2694,60 @@
   </si>
   <si>
     <t>MATTERNAME_CASEPAGE</t>
+  </si>
+  <si>
+    <t>DELETE_CASE_POPUP_FRAME</t>
+  </si>
+  <si>
+    <t>btnYes_input</t>
+  </si>
+  <si>
+    <t>DELETE_CASE_POPUP_YES_BUTTON</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@src,'Delete.aspx?case_id')]</t>
+  </si>
+  <si>
+    <t>btnEditCase</t>
+  </si>
+  <si>
+    <t>EDITCASE_ICON</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@src,'EditCase.aspx?case_id')]</t>
+  </si>
+  <si>
+    <t>EDITCASE_POPUP_FRAME</t>
+  </si>
+  <si>
+    <t>ddlJurisdiction</t>
+  </si>
+  <si>
+    <t>JURISDICTION_TEXT</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Arbitration--Award Filed')]</t>
+  </si>
+  <si>
+    <t>DOCKET_NAME</t>
+  </si>
+  <si>
+    <t>//div[@id='pnlDockets']//following::span[text()='(1)']</t>
+  </si>
+  <si>
+    <t>//div[@id='pnlDockets']//following::span[text()='(0)']</t>
+  </si>
+  <si>
+    <t>DOCKETS_BEFORE_CREATED</t>
+  </si>
+  <si>
+    <t>DOCKETS_AFTER_CREATED</t>
+  </si>
+  <si>
+    <t>//img[@src='../App_Themes/Blue/Images/button_delete.png']</t>
+  </si>
+  <si>
+    <t>DOCKET_DELETE_IMG_ICON</t>
   </si>
 </sst>
 </file>
@@ -3166,8 +3220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5206,6 +5260,9 @@
       <c r="B204" t="s">
         <v>863</v>
       </c>
+      <c r="C204" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="7" t="s">
@@ -5225,6 +5282,9 @@
       <c r="B206" t="s">
         <v>869</v>
       </c>
+      <c r="C206" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="7" t="s">
@@ -5233,6 +5293,9 @@
       <c r="B207" t="s">
         <v>871</v>
       </c>
+      <c r="C207" s="2" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="7" t="s">
@@ -5241,148 +5304,249 @@
       <c r="B208" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="C208" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="7" t="s">
         <v>876</v>
       </c>
       <c r="B209" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="7" t="s">
         <v>878</v>
       </c>
       <c r="B210" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
+      <c r="C210" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="7" t="s">
         <v>880</v>
       </c>
       <c r="B211" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="C211" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="7" t="s">
         <v>882</v>
       </c>
       <c r="B212" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="C212" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="7" t="s">
         <v>884</v>
       </c>
       <c r="B213" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
+      <c r="C213" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="7" t="s">
         <v>885</v>
       </c>
       <c r="B214" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="C214" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="7" t="s">
         <v>887</v>
       </c>
       <c r="B215" s="17" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="C215" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="7" t="s">
         <v>891</v>
       </c>
       <c r="B216" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="217" spans="1:2">
+      <c r="C216" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="7" t="s">
         <v>892</v>
       </c>
       <c r="B217" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="7"/>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="7"/>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="7"/>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="7"/>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" s="7"/>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="7"/>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="7"/>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" s="7"/>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="7"/>
-      <c r="B226" s="4"/>
-    </row>
-    <row r="227" spans="1:2">
+      <c r="C217" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="B219" t="s">
+        <v>894</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="B220" t="s">
+        <v>897</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="B221" t="s">
+        <v>899</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B222" t="s">
+        <v>901</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="7" t="s">
+        <v>904</v>
+      </c>
+      <c r="B223" t="s">
+        <v>903</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="B224" t="s">
+        <v>905</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="B225" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="7"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:3">
       <c r="A228" s="7"/>
       <c r="B228" s="4"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:3">
       <c r="A229" s="7"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:3">
       <c r="A230" s="7"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:3">
       <c r="A231" s="7"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:3">
       <c r="A232" s="7"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:3">
       <c r="A233" s="7"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:3">
       <c r="A234" s="7"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:3">
       <c r="A235" s="7"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:3">
       <c r="A236" s="7"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:3">
       <c r="A237" s="7"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:3">
       <c r="A238" s="7"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:3">
       <c r="A239" s="7"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:3">
       <c r="A240" s="7"/>
     </row>
     <row r="241" spans="1:1">

--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2925" windowWidth="12000" windowHeight="5700"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="989">
   <si>
     <t>password</t>
   </si>
@@ -2748,13 +2748,247 @@
   </si>
   <si>
     <t>DOCKET_DELETE_IMG_ICON</t>
+  </si>
+  <si>
+    <t>HOME_TAB</t>
+  </si>
+  <si>
+    <t>//span[@id='__tab_Tabs_pnlSearch' and contains(text(),'Home')]</t>
+  </si>
+  <si>
+    <t>CLICK_FRAME</t>
+  </si>
+  <si>
+    <t>//div[contains(@id,'__tab_Tabs_pnl')]//div/div</t>
+  </si>
+  <si>
+    <t>CLIENTDETAIL_PAGE_IFRAME1</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@id,'iframe') and contains(@src,'Docket/Default.aspx?')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //iframe[@src='Docket/Default.aspx?case_id=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFRAME_END </t>
+  </si>
+  <si>
+    <t>HOME_CASE_ID</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'txtCase')]</t>
+  </si>
+  <si>
+    <t>CLIENT_ID_TESTCASE_FRAME</t>
+  </si>
+  <si>
+    <t>//span[contains(@id,'txtClient') and contains(text(),'</t>
+  </si>
+  <si>
+    <t>CLIENT_ID_TESTCASE_FRAME1</t>
+  </si>
+  <si>
+    <t>ATTORNEY_ADD_NOW</t>
+  </si>
+  <si>
+    <t>//input[@id='btnAddAttorneyGroup']</t>
+  </si>
+  <si>
+    <t>ATTORNEY_GROUP_FRAME</t>
+  </si>
+  <si>
+    <t>//iframe[contains(@name,'attGroupWindow') and contains(@src,'AttorneyGroup.aspx?case_id')]</t>
+  </si>
+  <si>
+    <t>ATTORNEY_GROUP_SEARCH</t>
+  </si>
+  <si>
+    <t>//input[@id='AttorneyGroupLookup_btnLookup']</t>
+  </si>
+  <si>
+    <t>ATTORNEY_GROUP_SELECT</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'ContentMain_RadTextBoxAttorneyGroup')]</t>
+  </si>
+  <si>
+    <t>ATTORNEY_GROUP_SELECT_CLICK</t>
+  </si>
+  <si>
+    <t>//tr[contains(@id,'ContentMain_RadGridAttorneyGroups')]</t>
+  </si>
+  <si>
+    <t>ATTORNEY_GROUP_SELECT_CLICK_SEARCH_ENTER</t>
+  </si>
+  <si>
+    <t>//a[@id='ctl00_ContentMain_RadTextBoxAttorneyGroup_GoButton']</t>
+  </si>
+  <si>
+    <t>ATTORNEY_GROUP_SELECT_OK</t>
+  </si>
+  <si>
+    <t>//input[@value='OK']</t>
+  </si>
+  <si>
+    <t>ATTORNEY_SAVE</t>
+  </si>
+  <si>
+    <t>NEW_CASE_CLIENT_TEXT_BOX</t>
+  </si>
+  <si>
+    <t>//input[@id='txtClientMatter_txtClient']</t>
+  </si>
+  <si>
+    <t>NEW_CASE_MATTER_TEXT_BOX</t>
+  </si>
+  <si>
+    <t>//input[@id='txtClientMatter_txtMatter']</t>
+  </si>
+  <si>
+    <t>ATTORNET_SAVE</t>
+  </si>
+  <si>
+    <t>ATTORNEY_NOW_IFRAME</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_IFRAME</t>
+  </si>
+  <si>
+    <t>//iframe[@id='Tabs_pnlSystemAdmin_frameSysAdmin']</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_SUB_IFRAME</t>
+  </si>
+  <si>
+    <t>//iframe[@id='iframeFile']</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_ATTORNEY_AREA_OF_LAW</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Attorney Area of Law')]</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_ATTORNEY_AREA_OF_LAW_NEW</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'New')]</t>
+  </si>
+  <si>
+    <t>AREA_OF_LAW_ID</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'ctl00_ContentMain_RadTextBoxID')]</t>
+  </si>
+  <si>
+    <t>AREA_OF_LAW_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>//textarea[contains(@id,'ContentMain_RadTextBoxDescription')]</t>
+  </si>
+  <si>
+    <t>AREA_OF_LAW_OK</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'ContentFooter_btnOK')]</t>
+  </si>
+  <si>
+    <t>SELECT_AREA_OF_LAW_ID</t>
+  </si>
+  <si>
+    <t>//td[contains(.,'</t>
+  </si>
+  <si>
+    <t>SELECT_AREA_OF_LAW_ID1</t>
+  </si>
+  <si>
+    <t>SELECT_AREA_OF_LAW_DELETE</t>
+  </si>
+  <si>
+    <t>//span[text()='Delete']</t>
+  </si>
+  <si>
+    <t>SELECT_AREA_OF_LAW_UNDO_DELETE</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Undo Deleted')]</t>
+  </si>
+  <si>
+    <t>SELECT_AREA_OF_LAW_SHOW_DELETE</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),'Show Deleted')]</t>
+  </si>
+  <si>
+    <t>SELECT_AREA_OF_LAW_SHOW_DELETE_VALUE</t>
+  </si>
+  <si>
+    <t>SELECT_AREA_OF_LAW_SHOW_DELETE_VALUE1</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_SETTINGS_ENTIRE_CONTENT</t>
+  </si>
+  <si>
+    <t>//a[contains(.,'</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_SETTINGS_ENTIRE_CONTENT1</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_ENTIRE_ATTORNEY_NEW</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_ENTIRE_ATTORNEY_NEW1</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_ENTIRE_ATTORNEY_NEW_ID</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_ENTIRE_ATTORNEY_NEW_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_ENTIRE_ATTORNEY_NEW_DESCRIPTION_OK_ID</t>
+  </si>
+  <si>
+    <t>ADMIN_TOOL_ENTIRE_ATTORNEY_NEW_DESCRIPTION_OK_ID1</t>
+  </si>
+  <si>
+    <t>ENTIRE_ATTORNEY_DELETE</t>
+  </si>
+  <si>
+    <t>ENTIRE_ATTORNEY_DELETE1</t>
+  </si>
+  <si>
+    <t>ENTIRE_ATTORNEY_SHOW_DELETE</t>
+  </si>
+  <si>
+    <t>ENTIRE_ATTORNEY_SHOW_DELETE1</t>
+  </si>
+  <si>
+    <t>ENTIRE_ATTORNEY_UNDO_DELETE</t>
+  </si>
+  <si>
+    <t>ENTIRE_ATTORNEY_UNDO_DELETE1</t>
+  </si>
+  <si>
+    <t>SELECT_DIVISION_NEW_JURISDICTION</t>
+  </si>
+  <si>
+    <t>//input[contains(@id,'ContentMain_JurisdictionLookup_DropDownListJurisdiction_Input')]</t>
+  </si>
+  <si>
+    <t>MENU_REPORTS</t>
+  </si>
+  <si>
+    <t>//div[@id='Tabs']//span[contains(text(),'Report')]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2885,7 +3119,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2917,6 +3151,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2930,6 +3168,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3008,6 +3251,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3042,6 +3286,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3217,20 +3462,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D276"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="112.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3238,7 +3483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -3247,7 +3492,7 @@
       </c>
       <c r="C2" s="12"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>538</v>
       </c>
@@ -3258,7 +3503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>540</v>
       </c>
@@ -3269,7 +3514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>546</v>
       </c>
@@ -3278,7 +3523,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>547</v>
       </c>
@@ -3287,7 +3532,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>548</v>
       </c>
@@ -3296,2366 +3541,2891 @@
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="B8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>544</v>
       </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>545</v>
       </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7" t="s">
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>582</v>
       </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>551</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>583</v>
       </c>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>652</v>
       </c>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>554</v>
       </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>800</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>799</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="B17" t="s">
-        <v>801</v>
+        <v>557</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>799</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B18" t="s">
-        <v>559</v>
+        <v>801</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B19" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B20" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="7" t="s">
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7" t="s">
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7" t="s">
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>567</v>
       </c>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7" t="s">
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B26" s="17" t="s">
         <v>800</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>799</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B27" t="s">
-        <v>801</v>
+        <v>569</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>799</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B28" t="s">
-        <v>572</v>
+        <v>801</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B29" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
+      </c>
+      <c r="B30" t="s">
+        <v>559</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="7" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="7" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="7" t="s">
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="7" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>595</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="7" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>598</v>
       </c>
-      <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7" t="s">
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="7" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="7" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="7" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="7" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="7" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="7" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="7" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="7" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="7" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="7" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="7" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="7" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="7" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="7" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="7" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="7" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="7" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="7" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="7" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="7" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="7" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="7" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="7" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="7" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="7" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="7" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="7" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="7" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="12" customFormat="1">
-      <c r="A74" s="15" t="s">
+    <row r="75" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="B74" s="16"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="7" t="s">
+      <c r="B75" s="16"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="7" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>656</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="B78" t="s">
-        <v>817</v>
+        <v>658</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>824</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="14" customFormat="1" ht="15.75">
-      <c r="A79" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>660</v>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B79" t="s">
+        <v>817</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:3" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="7" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>666</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="7" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>6</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B85" t="s">
-        <v>673</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="6" customFormat="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B86" t="s">
+        <v>673</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B87" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="7" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="B88" t="s">
-        <v>675</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
+      </c>
+      <c r="B89" t="s">
+        <v>675</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C90" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="B91" t="s">
-        <v>6</v>
+        <v>681</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B92" t="s">
-        <v>673</v>
+        <v>6</v>
       </c>
       <c r="C92" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="B93" t="s">
+        <v>673</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B94" s="17" t="s">
         <v>684</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="B94" t="s">
-        <v>685</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
+      </c>
+      <c r="B95" t="s">
+        <v>685</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>559</v>
+        <v>690</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
         <v>771</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:4">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>695</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C101" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="7" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>698</v>
+        <v>823</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="B105" t="s">
-        <v>6</v>
+        <v>702</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>699</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B106" t="s">
-        <v>673</v>
+        <v>6</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B107" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>770</v>
+        <v>706</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>705</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>707</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="11" t="s">
-        <v>709</v>
-      </c>
-      <c r="B110" t="s">
-        <v>711</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="B111" t="s">
+        <v>711</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>712</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="11" t="s">
-        <v>714</v>
-      </c>
-      <c r="B112" t="s">
-        <v>713</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+      <c r="B113" t="s">
+        <v>713</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
-        <v>718</v>
-      </c>
-      <c r="B114" t="s">
-        <v>717</v>
+        <v>716</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>715</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>717</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B116" t="s">
-        <v>724</v>
+        <v>6</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B117" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="7" t="s">
-        <v>720</v>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
+        <v>723</v>
       </c>
       <c r="B118" t="s">
-        <v>598</v>
+        <v>722</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B119" t="s">
+        <v>598</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C120" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="7" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>774</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="B121" t="s">
-        <v>592</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>592</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>596</v>
+        <v>727</v>
       </c>
       <c r="B123" t="s">
-        <v>592</v>
+        <v>6</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B124" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="1:4">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>775</v>
+        <v>597</v>
+      </c>
+      <c r="B125" t="s">
+        <v>595</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="B126" t="s">
-        <v>6</v>
+        <v>588</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>775</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>776</v>
+        <v>589</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="B128" t="s">
-        <v>6</v>
+        <v>590</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>776</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>777</v>
+        <v>591</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="B130" t="s">
-        <v>6</v>
+        <v>728</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>777</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>733</v>
-      </c>
-      <c r="B132" t="s">
-        <v>6</v>
+        <v>731</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>730</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>734</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>735</v>
-      </c>
-      <c r="B134" t="s">
-        <v>6</v>
+        <v>734</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>732</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="B136" t="s">
-        <v>6</v>
+        <v>736</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B137" t="s">
-        <v>739</v>
+        <v>6</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>739</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>780</v>
+        <v>742</v>
       </c>
       <c r="B139" t="s">
-        <v>779</v>
+        <v>6</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>743</v>
+        <v>780</v>
       </c>
       <c r="B140" t="s">
-        <v>740</v>
+        <v>779</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>740</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B142" t="s">
-        <v>745</v>
+        <v>6</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>745</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>614</v>
+        <v>747</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
       </c>
       <c r="C144" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="B145" t="s">
-        <v>615</v>
+        <v>748</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>614</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B146" t="s">
-        <v>750</v>
+        <v>615</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>750</v>
       </c>
       <c r="C147" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B148" t="s">
-        <v>752</v>
+        <v>6</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>752</v>
       </c>
       <c r="C149" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B150" t="s">
-        <v>758</v>
+        <v>6</v>
       </c>
       <c r="C150" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>758</v>
       </c>
       <c r="C151" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B152" t="s">
-        <v>759</v>
+        <v>6</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>759</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B154" t="s">
-        <v>762</v>
+        <v>6</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>762</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>619</v>
+        <v>764</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
       </c>
       <c r="C156" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>766</v>
-      </c>
-      <c r="B157" t="s">
-        <v>620</v>
+        <v>765</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>619</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B158" t="s">
-        <v>767</v>
+        <v>620</v>
       </c>
       <c r="C158" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="B159" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="C159" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>783</v>
+        <v>782</v>
+      </c>
+      <c r="B160" t="s">
+        <v>781</v>
       </c>
       <c r="C160" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>783</v>
+      </c>
       <c r="C161" s="12" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="2"/>
-    </row>
-    <row r="165" spans="1:3" s="19" customFormat="1">
-      <c r="A165" s="18"/>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="2" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="18"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B167" s="17" t="s">
         <v>804</v>
       </c>
-      <c r="C166" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="2" t="s">
+      <c r="C167" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B168" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="C167" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="2" t="s">
+      <c r="C168" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B169" s="17" t="s">
         <v>804</v>
       </c>
-      <c r="C168" s="12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="2" t="s">
+      <c r="C169" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B169" s="17" t="s">
+      <c r="B170" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="C169" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="2" t="s">
+      <c r="C170" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>807</v>
       </c>
-      <c r="C170" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="2" t="s">
+      <c r="C171" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>809</v>
       </c>
-      <c r="C171" s="12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="2" t="s">
+      <c r="C172" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>813</v>
       </c>
-      <c r="C172" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="2" t="s">
+      <c r="C173" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>815</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C174" s="12" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="2" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>819</v>
       </c>
-      <c r="C174" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="2" t="s">
+      <c r="C175" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" t="s">
         <v>849</v>
       </c>
-      <c r="C175" s="12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="2" t="s">
+      <c r="C176" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B176" s="17" t="s">
+      <c r="B177" s="17" t="s">
         <v>821</v>
       </c>
-      <c r="C176" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="2" t="s">
+      <c r="C177" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>825</v>
       </c>
-      <c r="C177" s="12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="2" t="s">
+      <c r="C178" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>827</v>
       </c>
-      <c r="C178" s="17" t="s">
+      <c r="C179" s="17" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="2" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>830</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C180" s="12" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="2" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>831</v>
       </c>
-      <c r="C180" s="17" t="s">
+      <c r="C181" s="17" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="2" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>832</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C182" s="12" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="2" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>835</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C183" s="17" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="2" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B184" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="C183" s="12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="2" t="s">
+      <c r="C184" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>846</v>
       </c>
-      <c r="C184" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="2" t="s">
+      <c r="C185" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>840</v>
       </c>
-      <c r="C185" s="12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="20" t="s">
+      <c r="C186" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>842</v>
       </c>
-      <c r="C186" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="2" t="s">
+      <c r="C187" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>843</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C188" s="12" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="2" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>847</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="C189" s="17" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="2" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="B189" s="17" t="s">
+      <c r="B190" s="17" t="s">
         <v>855</v>
       </c>
-      <c r="C189" s="12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="2" t="s">
+      <c r="C190" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="B190" s="17" t="s">
+      <c r="B191" s="17" t="s">
         <v>856</v>
       </c>
-      <c r="C190" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="2" t="s">
+      <c r="C191" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="B191" s="17" t="s">
+      <c r="B192" s="17" t="s">
         <v>857</v>
       </c>
-      <c r="C191" s="12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="2" t="s">
+      <c r="C192" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="B192" s="17" t="s">
+      <c r="B193" s="17" t="s">
         <v>865</v>
       </c>
-      <c r="C192" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2" t="s">
+      <c r="C193" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="B193" s="17" t="s">
+      <c r="B194" s="17" t="s">
         <v>866</v>
       </c>
-      <c r="C193" s="12" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="7" t="s">
+      <c r="C194" s="12" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B195" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="C194" s="17" t="s">
+      <c r="C195" s="17" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="7" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B196" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="C195" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="7" t="s">
+      <c r="C196" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="B196" s="17" t="s">
+      <c r="B197" s="17" t="s">
         <v>788</v>
       </c>
-      <c r="C196" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="7" t="s">
+      <c r="C197" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B198" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C197" s="17" t="s">
+      <c r="C198" s="17" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="7" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>649</v>
       </c>
-      <c r="C198" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="7" t="s">
+      <c r="C199" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>778</v>
       </c>
-      <c r="C199" s="17" t="s">
+      <c r="C200" s="17" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="7" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>798</v>
       </c>
-      <c r="C200" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="7" t="s">
+      <c r="C201" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>802</v>
       </c>
-      <c r="C201" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="7" t="s">
+      <c r="C202" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="B202" s="17" t="s">
+      <c r="B203" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="C202" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="7" t="s">
+      <c r="C203" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
         <v>861</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>859</v>
       </c>
-      <c r="C203" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="2" t="s">
+      <c r="C204" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>863</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C205" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="7" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>867</v>
       </c>
-      <c r="C205" s="17" t="s">
+      <c r="C206" s="17" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="7" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>869</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C207" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="7" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
         <v>872</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>871</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="7" t="s">
+      <c r="C208" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
         <v>874</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>873</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="7" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
         <v>875</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="7" t="s">
+      <c r="C210" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>877</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="B211" t="s">
-        <v>879</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B212" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B213" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="B214" t="s">
+        <v>883</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="7" t="s">
         <v>885</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>886</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="7" t="s">
+      <c r="C215" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="7" t="s">
         <v>887</v>
       </c>
-      <c r="B215" s="17" t="s">
+      <c r="B216" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="7" t="s">
+      <c r="C216" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>889</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="7" t="s">
-        <v>892</v>
-      </c>
-      <c r="B217" t="s">
-        <v>890</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="B218" t="s">
+        <v>890</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
         <v>893</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="7" t="s">
+      <c r="C219" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B220" t="s">
         <v>894</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="B220" t="s">
-        <v>897</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="B221" t="s">
+        <v>897</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>899</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="2" t="s">
+      <c r="C222" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>901</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="7" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>903</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="7" t="s">
+      <c r="C224" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
         <v>908</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>905</v>
       </c>
-      <c r="C224" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="7" t="s">
+      <c r="C225" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="B225" s="17" t="s">
+      <c r="B226" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="C225" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="7" t="s">
+      <c r="C226" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="B226" s="4" t="s">
+      <c r="B227" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="C226" s="17" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="7"/>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="C227" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="7"/>
-      <c r="B228" s="4"/>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="7"/>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="7"/>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="7"/>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="7"/>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="7"/>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="7"/>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="7"/>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="7"/>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="7"/>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="7"/>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="7"/>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="7"/>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="7"/>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="7"/>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="7"/>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="7"/>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="7"/>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="7"/>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="7"/>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="7"/>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="7"/>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="7"/>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="7"/>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="7"/>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="7"/>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="7"/>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="7"/>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="7"/>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="7"/>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="7"/>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="7"/>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="7"/>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="7"/>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="7"/>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="7"/>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="7"/>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="7"/>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="7"/>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="7"/>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="7"/>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="7"/>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="7"/>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="7"/>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="7"/>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" s="7"/>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="7"/>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="7"/>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="7"/>
+    </row>
+    <row r="229" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="21"/>
+      <c r="B229" s="22"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B232" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="B234" t="s">
+        <v>649</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B235" t="s">
+        <v>778</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="B236" t="s">
+        <v>798</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B237" t="s">
+        <v>912</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B238" t="s">
+        <v>914</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B239" t="s">
+        <v>916</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B240" t="s">
+        <v>917</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B241" t="s">
+        <v>866</v>
+      </c>
+      <c r="C241" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B242" t="s">
+        <v>920</v>
+      </c>
+      <c r="C242" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B243" t="s">
+        <v>722</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B244" t="s">
+        <v>855</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B245" t="s">
+        <v>856</v>
+      </c>
+      <c r="C245" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B246" t="s">
+        <v>857</v>
+      </c>
+      <c r="C246" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="C247" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B249" t="s">
+        <v>925</v>
+      </c>
+      <c r="C249" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B250" t="s">
+        <v>927</v>
+      </c>
+      <c r="C250" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B251" t="s">
+        <v>929</v>
+      </c>
+      <c r="C251" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B252" t="s">
+        <v>931</v>
+      </c>
+      <c r="C252" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B253" t="s">
+        <v>933</v>
+      </c>
+      <c r="C253" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B254" t="s">
+        <v>935</v>
+      </c>
+      <c r="C254" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B255" t="s">
+        <v>937</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B256" t="s">
+        <v>693</v>
+      </c>
+      <c r="C256" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B257" t="s">
+        <v>940</v>
+      </c>
+      <c r="C257" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B258" t="s">
+        <v>942</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B259" t="s">
+        <v>693</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B260" t="s">
+        <v>888</v>
+      </c>
+      <c r="C260" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="18" t="s">
+        <v>945</v>
+      </c>
+      <c r="B261" s="19" t="s">
+        <v>946</v>
+      </c>
+      <c r="C261" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B262" t="s">
+        <v>948</v>
+      </c>
+      <c r="C262" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B263" t="s">
+        <v>950</v>
+      </c>
+      <c r="C263" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B264" t="s">
+        <v>952</v>
+      </c>
+      <c r="C264" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="B265" t="s">
+        <v>954</v>
+      </c>
+      <c r="C265" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="B266" t="s">
+        <v>956</v>
+      </c>
+      <c r="C266" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="B267" t="s">
+        <v>958</v>
+      </c>
+      <c r="C267" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="B268" t="s">
+        <v>960</v>
+      </c>
+      <c r="C268" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="B270" t="s">
+        <v>963</v>
+      </c>
+      <c r="C270" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="B271" t="s">
+        <v>965</v>
+      </c>
+      <c r="C271" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="B272" t="s">
+        <v>967</v>
+      </c>
+      <c r="C272" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="B273" t="s">
+        <v>960</v>
+      </c>
+      <c r="C273" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="B275" t="s">
+        <v>971</v>
+      </c>
+      <c r="C275" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B277" t="s">
+        <v>804</v>
+      </c>
+      <c r="C277" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B279" t="s">
+        <v>954</v>
+      </c>
+      <c r="C279" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B280" t="s">
+        <v>956</v>
+      </c>
+      <c r="C280" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B281" t="s">
+        <v>960</v>
+      </c>
+      <c r="C281" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="B283" t="s">
+        <v>804</v>
+      </c>
+      <c r="C283" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B285" t="s">
+        <v>804</v>
+      </c>
+      <c r="C285" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="B287" t="s">
+        <v>804</v>
+      </c>
+      <c r="C287" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" s="17" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="B289" t="s">
+        <v>986</v>
+      </c>
+      <c r="C289" s="17" t="s">
+        <v>793</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5664,20 +6434,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView topLeftCell="A258" workbookViewId="0">
       <selection activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="112.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5685,7 +6455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5696,7 +6466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -5705,7 +6475,7 @@
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>122</v>
       </c>
@@ -5714,7 +6484,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>123</v>
       </c>
@@ -5725,7 +6495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>124</v>
       </c>
@@ -5736,7 +6506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>126</v>
       </c>
@@ -5747,7 +6517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -5756,7 +6526,7 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -5765,7 +6535,7 @@
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -5774,7 +6544,7 @@
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -5783,7 +6553,7 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
@@ -5792,7 +6562,7 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -5801,7 +6571,7 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
@@ -5812,7 +6582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
@@ -5823,7 +6593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
@@ -5834,7 +6604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>30</v>
       </c>
@@ -5845,7 +6615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
@@ -5854,7 +6624,7 @@
       </c>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
@@ -5863,7 +6633,7 @@
       </c>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
@@ -5872,7 +6642,7 @@
       </c>
       <c r="C20" s="12"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
@@ -5883,7 +6653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
@@ -5894,7 +6664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>96</v>
       </c>
@@ -5905,7 +6675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -5914,7 +6684,7 @@
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
@@ -5923,7 +6693,7 @@
       </c>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
@@ -5934,7 +6704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>40</v>
       </c>
@@ -5942,7 +6712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
@@ -5950,7 +6720,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -5958,7 +6728,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>51</v>
       </c>
@@ -5966,7 +6736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>53</v>
       </c>
@@ -5977,7 +6747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>354</v>
       </c>
@@ -5985,7 +6755,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>355</v>
       </c>
@@ -5995,7 +6765,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>362</v>
       </c>
@@ -6003,7 +6773,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>363</v>
       </c>
@@ -6011,7 +6781,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>56</v>
       </c>
@@ -6019,7 +6789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>57</v>
       </c>
@@ -6027,7 +6797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>59</v>
       </c>
@@ -6035,7 +6805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>60</v>
       </c>
@@ -6043,7 +6813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>61</v>
       </c>
@@ -6051,7 +6821,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>62</v>
       </c>
@@ -6059,7 +6829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>65</v>
       </c>
@@ -6067,7 +6837,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>67</v>
       </c>
@@ -6075,7 +6845,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>68</v>
       </c>
@@ -6083,7 +6853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>70</v>
       </c>
@@ -6091,7 +6861,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>71</v>
       </c>
@@ -6099,7 +6869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>80</v>
       </c>
@@ -6107,7 +6877,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>75</v>
       </c>
@@ -6115,7 +6885,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>74</v>
       </c>
@@ -6123,7 +6893,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>75</v>
       </c>
@@ -6134,7 +6904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>78</v>
       </c>
@@ -6145,7 +6915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>83</v>
       </c>
@@ -6156,7 +6926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>86</v>
       </c>
@@ -6167,7 +6937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>87</v>
       </c>
@@ -6176,7 +6946,7 @@
       </c>
       <c r="C54" s="12"/>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>88</v>
       </c>
@@ -6185,7 +6955,7 @@
       </c>
       <c r="C55" s="12"/>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>91</v>
       </c>
@@ -6196,7 +6966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>92</v>
       </c>
@@ -6204,7 +6974,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>94</v>
       </c>
@@ -6212,13 +6982,13 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="10" customFormat="1" ht="15.75">
+    <row r="59" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>99</v>
       </c>
@@ -6226,7 +6996,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>100</v>
       </c>
@@ -6234,7 +7004,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>102</v>
       </c>
@@ -6242,7 +7012,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>104</v>
       </c>
@@ -6250,7 +7020,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>105</v>
       </c>
@@ -6258,7 +7028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>107</v>
       </c>
@@ -6266,7 +7036,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>108</v>
       </c>
@@ -6274,7 +7044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>109</v>
       </c>
@@ -6282,7 +7052,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>110</v>
       </c>
@@ -6290,7 +7060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>112</v>
       </c>
@@ -6298,7 +7068,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>113</v>
       </c>
@@ -6306,7 +7076,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>115</v>
       </c>
@@ -6314,7 +7084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>116</v>
       </c>
@@ -6322,7 +7092,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>117</v>
       </c>
@@ -6330,7 +7100,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>118</v>
       </c>
@@ -6338,7 +7108,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>119</v>
       </c>
@@ -6346,7 +7116,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>114</v>
       </c>
@@ -6354,7 +7124,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>353</v>
       </c>
@@ -6362,7 +7132,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>120</v>
       </c>
@@ -6370,7 +7140,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>317</v>
       </c>
@@ -6378,7 +7148,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>318</v>
       </c>
@@ -6386,7 +7156,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>322</v>
       </c>
@@ -6394,7 +7164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>335</v>
       </c>
@@ -6402,7 +7172,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>336</v>
       </c>
@@ -6410,7 +7180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>324</v>
       </c>
@@ -6418,7 +7188,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>325</v>
       </c>
@@ -6426,7 +7196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>326</v>
       </c>
@@ -6434,7 +7204,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>358</v>
       </c>
@@ -6442,7 +7212,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>329</v>
       </c>
@@ -6450,7 +7220,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>334</v>
       </c>
@@ -6458,7 +7228,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>331</v>
       </c>
@@ -6466,7 +7236,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>347</v>
       </c>
@@ -6474,7 +7244,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>333</v>
       </c>
@@ -6482,7 +7252,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>339</v>
       </c>
@@ -6490,7 +7260,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>341</v>
       </c>
@@ -6498,7 +7268,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>343</v>
       </c>
@@ -6506,7 +7276,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>344</v>
       </c>
@@ -6514,7 +7284,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>349</v>
       </c>
@@ -6522,7 +7292,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>352</v>
       </c>
@@ -6530,7 +7300,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>351</v>
       </c>
@@ -6538,13 +7308,13 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="10" customFormat="1" ht="15.75">
+    <row r="100" spans="1:3" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B100" s="9"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>129</v>
       </c>
@@ -6552,7 +7322,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>130</v>
       </c>
@@ -6563,7 +7333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>131</v>
       </c>
@@ -6574,7 +7344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>133</v>
       </c>
@@ -6582,7 +7352,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>135</v>
       </c>
@@ -6590,7 +7360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>141</v>
       </c>
@@ -6601,7 +7371,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>142</v>
       </c>
@@ -6612,7 +7382,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="6" customFormat="1">
+    <row r="108" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>143</v>
       </c>
@@ -6623,7 +7393,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>144</v>
       </c>
@@ -6634,7 +7404,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>145</v>
       </c>
@@ -6645,7 +7415,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>9</v>
       </c>
@@ -6656,7 +7426,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>5</v>
       </c>
@@ -6664,7 +7434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>150</v>
       </c>
@@ -6672,7 +7442,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>152</v>
       </c>
@@ -6680,7 +7450,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>153</v>
       </c>
@@ -6688,7 +7458,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>156</v>
       </c>
@@ -6699,7 +7469,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>268</v>
       </c>
@@ -6708,7 +7478,7 @@
       </c>
       <c r="C117" s="12"/>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>157</v>
       </c>
@@ -6719,7 +7489,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>160</v>
       </c>
@@ -6727,7 +7497,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>55</v>
       </c>
@@ -6738,7 +7508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>163</v>
       </c>
@@ -6749,7 +7519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>165</v>
       </c>
@@ -6760,7 +7530,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>167</v>
       </c>
@@ -6768,7 +7538,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>175</v>
       </c>
@@ -6776,7 +7546,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>170</v>
       </c>
@@ -6784,7 +7554,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>171</v>
       </c>
@@ -6792,7 +7562,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>172</v>
       </c>
@@ -6800,7 +7570,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>177</v>
       </c>
@@ -6808,7 +7578,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>179</v>
       </c>
@@ -6819,7 +7589,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>182</v>
       </c>
@@ -6827,7 +7597,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>181</v>
       </c>
@@ -6835,7 +7605,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>184</v>
       </c>
@@ -6843,7 +7613,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>187</v>
       </c>
@@ -6851,7 +7621,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>188</v>
       </c>
@@ -6859,7 +7629,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>189</v>
       </c>
@@ -6867,7 +7637,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>190</v>
       </c>
@@ -6875,7 +7645,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>192</v>
       </c>
@@ -6886,7 +7656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>197</v>
       </c>
@@ -6894,7 +7664,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>193</v>
       </c>
@@ -6905,7 +7675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>199</v>
       </c>
@@ -6916,7 +7686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>201</v>
       </c>
@@ -6927,7 +7697,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>203</v>
       </c>
@@ -6935,7 +7705,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>205</v>
       </c>
@@ -6946,7 +7716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>207</v>
       </c>
@@ -6954,7 +7724,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>208</v>
       </c>
@@ -6962,7 +7732,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>209</v>
       </c>
@@ -6970,7 +7740,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>213</v>
       </c>
@@ -6981,7 +7751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="30">
+    <row r="148" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>215</v>
       </c>
@@ -6989,7 +7759,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="45">
+    <row r="149" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>216</v>
       </c>
@@ -6997,7 +7767,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="30">
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>218</v>
       </c>
@@ -7005,7 +7775,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="45">
+    <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>219</v>
       </c>
@@ -7013,7 +7783,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>220</v>
       </c>
@@ -7021,7 +7791,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>225</v>
       </c>
@@ -7029,7 +7799,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>221</v>
       </c>
@@ -7037,7 +7807,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>226</v>
       </c>
@@ -7045,7 +7815,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>229</v>
       </c>
@@ -7056,7 +7826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>265</v>
       </c>
@@ -7065,7 +7835,7 @@
       </c>
       <c r="C157" s="12"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>231</v>
       </c>
@@ -7073,7 +7843,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>232</v>
       </c>
@@ -7081,7 +7851,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>235</v>
       </c>
@@ -7092,7 +7862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>237</v>
       </c>
@@ -7103,7 +7873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>239</v>
       </c>
@@ -7114,7 +7884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>241</v>
       </c>
@@ -7125,7 +7895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>251</v>
       </c>
@@ -7136,7 +7906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>245</v>
       </c>
@@ -7144,7 +7914,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>246</v>
       </c>
@@ -7152,7 +7922,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>249</v>
       </c>
@@ -7160,7 +7930,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>253</v>
       </c>
@@ -7168,7 +7938,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>243</v>
       </c>
@@ -7176,7 +7946,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>301</v>
       </c>
@@ -7184,7 +7954,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>302</v>
       </c>
@@ -7192,7 +7962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>255</v>
       </c>
@@ -7203,7 +7973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>257</v>
       </c>
@@ -7211,7 +7981,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>259</v>
       </c>
@@ -7219,7 +7989,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>261</v>
       </c>
@@ -7230,7 +8000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>262</v>
       </c>
@@ -7238,7 +8008,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>271</v>
       </c>
@@ -7249,7 +8019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>272</v>
       </c>
@@ -7257,7 +8027,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>303</v>
       </c>
@@ -7265,7 +8035,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>304</v>
       </c>
@@ -7273,7 +8043,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>275</v>
       </c>
@@ -7281,7 +8051,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>276</v>
       </c>
@@ -7289,7 +8059,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>277</v>
       </c>
@@ -7297,7 +8067,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>278</v>
       </c>
@@ -7305,7 +8075,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>279</v>
       </c>
@@ -7313,7 +8083,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>282</v>
       </c>
@@ -7321,7 +8091,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>283</v>
       </c>
@@ -7329,7 +8099,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>284</v>
       </c>
@@ -7337,7 +8107,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>285</v>
       </c>
@@ -7345,7 +8115,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>288</v>
       </c>
@@ -7353,7 +8123,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>290</v>
       </c>
@@ -7361,7 +8131,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>292</v>
       </c>
@@ -7369,7 +8139,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>294</v>
       </c>
@@ -7377,7 +8147,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>295</v>
       </c>
@@ -7385,7 +8155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>297</v>
       </c>
@@ -7393,7 +8163,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>299</v>
       </c>
@@ -7401,7 +8171,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>300</v>
       </c>
@@ -7409,7 +8179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75">
+    <row r="198" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>374</v>
       </c>
@@ -7417,7 +8187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>368</v>
       </c>
@@ -7426,7 +8196,7 @@
       </c>
       <c r="C199" s="12"/>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>369</v>
       </c>
@@ -7435,7 +8205,7 @@
       </c>
       <c r="C200" s="12"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>370</v>
       </c>
@@ -7444,7 +8214,7 @@
       </c>
       <c r="C201" s="12"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>372</v>
       </c>
@@ -7452,7 +8222,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>373</v>
       </c>
@@ -7460,7 +8230,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>376</v>
       </c>
@@ -7468,7 +8238,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>377</v>
       </c>
@@ -7476,7 +8246,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>380</v>
       </c>
@@ -7484,7 +8254,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>382</v>
       </c>
@@ -7492,7 +8262,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>384</v>
       </c>
@@ -7500,7 +8270,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>385</v>
       </c>
@@ -7508,7 +8278,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>386</v>
       </c>
@@ -7516,7 +8286,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>387</v>
       </c>
@@ -7524,7 +8294,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>388</v>
       </c>
@@ -7532,7 +8302,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>389</v>
       </c>
@@ -7540,7 +8310,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>390</v>
       </c>
@@ -7548,7 +8318,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>391</v>
       </c>
@@ -7556,7 +8326,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>392</v>
       </c>
@@ -7564,7 +8334,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>393</v>
       </c>
@@ -7572,7 +8342,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>394</v>
       </c>
@@ -7580,7 +8350,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>395</v>
       </c>
@@ -7588,7 +8358,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>396</v>
       </c>
@@ -7596,7 +8366,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>397</v>
       </c>
@@ -7604,7 +8374,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>398</v>
       </c>
@@ -7612,7 +8382,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>400</v>
       </c>
@@ -7620,7 +8390,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>402</v>
       </c>
@@ -7628,7 +8398,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>403</v>
       </c>
@@ -7636,7 +8406,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>404</v>
       </c>
@@ -7644,7 +8414,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>406</v>
       </c>
@@ -7652,7 +8422,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>407</v>
       </c>
@@ -7660,7 +8430,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>412</v>
       </c>
@@ -7668,7 +8438,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>413</v>
       </c>
@@ -7676,7 +8446,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>414</v>
       </c>
@@ -7684,7 +8454,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>415</v>
       </c>
@@ -7692,7 +8462,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>416</v>
       </c>
@@ -7700,7 +8470,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="30">
+    <row r="234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>417</v>
       </c>
@@ -7708,7 +8478,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>418</v>
       </c>
@@ -7716,7 +8486,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="30">
+    <row r="236" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>419</v>
       </c>
@@ -7724,7 +8494,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>421</v>
       </c>
@@ -7732,7 +8502,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>423</v>
       </c>
@@ -7740,7 +8510,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>426</v>
       </c>
@@ -7748,7 +8518,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>427</v>
       </c>
@@ -7756,7 +8526,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>428</v>
       </c>
@@ -7764,7 +8534,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>432</v>
       </c>
@@ -7772,7 +8542,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>433</v>
       </c>
@@ -7780,7 +8550,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>434</v>
       </c>
@@ -7788,7 +8558,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>435</v>
       </c>
@@ -7796,7 +8566,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>444</v>
       </c>
@@ -7804,7 +8574,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>445</v>
       </c>
@@ -7812,7 +8582,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>446</v>
       </c>
@@ -7820,7 +8590,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>447</v>
       </c>
@@ -7828,7 +8598,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>448</v>
       </c>
@@ -7836,7 +8606,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>449</v>
       </c>
@@ -7844,7 +8614,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>450</v>
       </c>
@@ -7852,7 +8622,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>451</v>
       </c>
@@ -7860,7 +8630,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>457</v>
       </c>
@@ -7868,7 +8638,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>458</v>
       </c>
@@ -7876,7 +8646,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>459</v>
       </c>
@@ -7884,7 +8654,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>460</v>
       </c>
@@ -7892,7 +8662,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>461</v>
       </c>
@@ -7900,7 +8670,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>466</v>
       </c>
@@ -7908,7 +8678,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>467</v>
       </c>
@@ -7916,7 +8686,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>468</v>
       </c>
@@ -7924,7 +8694,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>469</v>
       </c>
@@ -7932,7 +8702,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>470</v>
       </c>
@@ -7940,7 +8710,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>471</v>
       </c>
@@ -7948,7 +8718,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>472</v>
       </c>
@@ -7956,7 +8726,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>473</v>
       </c>
@@ -7964,7 +8734,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>475</v>
       </c>
@@ -7972,7 +8742,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>477</v>
       </c>
@@ -7980,7 +8750,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>504</v>
       </c>
@@ -7988,7 +8758,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>512</v>
       </c>
@@ -7996,7 +8766,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>513</v>
       </c>
@@ -8004,7 +8774,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>514</v>
       </c>
@@ -8012,7 +8782,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>515</v>
       </c>
@@ -8020,7 +8790,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>516</v>
       </c>
@@ -8028,7 +8798,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>517</v>
       </c>
@@ -8036,7 +8806,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>518</v>
       </c>
@@ -8044,7 +8814,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>519</v>
       </c>
@@ -8052,7 +8822,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>525</v>
       </c>
@@ -8060,7 +8830,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>526</v>
       </c>
@@ -8068,7 +8838,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>527</v>
       </c>
@@ -8076,7 +8846,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>529</v>
       </c>
@@ -8084,7 +8854,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>532</v>
       </c>
@@ -8092,7 +8862,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>533</v>
       </c>
@@ -8100,7 +8870,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>534</v>
       </c>
